--- a/UnifiedFramework/TestDataFolder/TestCaseSheet.xlsx
+++ b/UnifiedFramework/TestDataFolder/TestCaseSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>SNO</t>
   </si>
@@ -24,9 +24,6 @@
     <t>TC_Name</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -40,6 +37,18 @@
   </si>
   <si>
     <t>tc4</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Run</t>
   </si>
 </sst>
 </file>
@@ -69,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,14 +101,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,7 +427,7 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -414,51 +435,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
